--- a/HARDWARE/violent fan-v2.0-Bom.xlsx
+++ b/HARDWARE/violent fan-v2.0-Bom.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\我的项目\暴力风扇2.0\发布\HARDWARE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1FF4D-D386-46C5-9A6F-F80B7EC058C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="violent fan-v2.0-Bom" sheetId="1" r:id="rId1"/>
@@ -199,9 +193,6 @@
     <t>2k</t>
   </si>
   <si>
-    <t>R28, R29, R30</t>
-  </si>
-  <si>
     <t>R31</t>
   </si>
   <si>
@@ -810,10 +801,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TSW SMD-6*6*5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.360a2e8daiR1EQ&amp;id=560195140249&amp;_u=8b2i1bf47e2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1104,13 +1091,21 @@
       </rPr>
       <t>6*6*10</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSW SMD-6*6*10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9, R28, R29, R30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1414,7 +1409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1447,26 +1442,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1499,23 +1477,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1691,11 +1652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1706,7 +1667,7 @@
     <col min="6" max="6" width="121.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,24 +1684,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1752,15 +1713,15 @@
         <v>4</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1773,12 +1734,12 @@
       </c>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -1791,12 +1752,12 @@
       </c>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1809,12 +1770,12 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1826,15 +1787,15 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1846,67 +1807,73 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="G9">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="G10">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>48</v>
@@ -1915,33 +1882,33 @@
         <v>6</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
@@ -1954,15 +1921,15 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
@@ -1972,12 +1939,12 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>54</v>
@@ -1990,12 +1957,12 @@
       </c>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
@@ -2008,12 +1975,12 @@
       </c>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>52</v>
@@ -2026,15 +1993,15 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
@@ -2043,18 +2010,18 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
@@ -2063,12 +2030,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2076,32 +2043,32 @@
       <c r="E21" s="17"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -2113,15 +2080,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
@@ -2133,15 +2100,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -2153,12 +2120,12 @@
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2166,15 +2133,15 @@
       <c r="E26" s="17"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>42</v>
@@ -2183,24 +2150,24 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
@@ -2212,18 +2179,18 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>42</v>
@@ -2232,15 +2199,15 @@
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>44</v>
@@ -2252,12 +2219,15 @@
         <v>6</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="G31">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -2265,12 +2235,12 @@
       <c r="E32" s="17"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>36</v>
@@ -2282,12 +2252,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -2295,101 +2265,113 @@
       <c r="E34" s="17"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="G35">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="G36">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+      <c r="G37">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="G38">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>31</v>
@@ -2401,55 +2383,55 @@
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>34</v>
@@ -2462,50 +2444,56 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="10">
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="G44">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2513,15 +2501,15 @@
         <v>2</v>
       </c>
       <c r="F46" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2530,12 +2518,12 @@
       </c>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2543,15 +2531,15 @@
         <v>1</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2559,15 +2547,18 @@
         <v>1</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+      <c r="G49">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2575,7 +2566,10 @@
         <v>2</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="G50">
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>
@@ -2594,36 +2588,36 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F44" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F41" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F40" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F37" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F8" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F19" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F20" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F45" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F46" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F48" r:id="rId28" xr:uid="{A1809027-6D5D-489B-AEF0-7A45E09447BA}"/>
-    <hyperlink ref="F49" r:id="rId29" xr:uid="{FF6695FF-0182-48F2-B01B-3F0CD7AB97B8}"/>
-    <hyperlink ref="F50" r:id="rId30" xr:uid="{F607CA4C-E659-4151-832D-36682CE4495B}"/>
+    <hyperlink ref="F44" r:id="rId1"/>
+    <hyperlink ref="F33" r:id="rId2"/>
+    <hyperlink ref="F29" r:id="rId3"/>
+    <hyperlink ref="F27" r:id="rId4"/>
+    <hyperlink ref="F25" r:id="rId5"/>
+    <hyperlink ref="F24" r:id="rId6"/>
+    <hyperlink ref="F42" r:id="rId7"/>
+    <hyperlink ref="F36" r:id="rId8"/>
+    <hyperlink ref="F38" r:id="rId9"/>
+    <hyperlink ref="F10" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12"/>
+    <hyperlink ref="F3" r:id="rId13"/>
+    <hyperlink ref="F23" r:id="rId14"/>
+    <hyperlink ref="F22" r:id="rId15"/>
+    <hyperlink ref="F41" r:id="rId16"/>
+    <hyperlink ref="F40" r:id="rId17"/>
+    <hyperlink ref="F37" r:id="rId18"/>
+    <hyperlink ref="F35" r:id="rId19"/>
+    <hyperlink ref="F31" r:id="rId20"/>
+    <hyperlink ref="F7" r:id="rId21"/>
+    <hyperlink ref="F8" r:id="rId22"/>
+    <hyperlink ref="F19" r:id="rId23"/>
+    <hyperlink ref="F20" r:id="rId24"/>
+    <hyperlink ref="F30" r:id="rId25"/>
+    <hyperlink ref="F45" r:id="rId26"/>
+    <hyperlink ref="F46" r:id="rId27"/>
+    <hyperlink ref="F48" r:id="rId28"/>
+    <hyperlink ref="F49" r:id="rId29"/>
+    <hyperlink ref="F50" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
